--- a/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
+++ b/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="103">
   <si>
     <t>Process</t>
   </si>
@@ -792,7 +792,7 @@
         <v>33</v>
       </c>
       <c r="N2">
-        <v>100</v>
+        <v>-1.29</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>34</v>
@@ -804,7 +804,7 @@
         <v>34</v>
       </c>
       <c r="R2">
-        <v>20.0661</v>
+        <v>21.908</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>35</v>
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="N3">
-        <v>100</v>
+        <v>-1.22</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>34</v>
@@ -869,7 +869,7 @@
         <v>34</v>
       </c>
       <c r="R3">
-        <v>17.3816</v>
+        <v>19.0333</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>35</v>
@@ -922,7 +922,7 @@
         <v>33</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>-1.15</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>34</v>
@@ -934,7 +934,7 @@
         <v>34</v>
       </c>
       <c r="R4">
-        <v>16.5485</v>
+        <v>18.1933</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>35</v>
@@ -990,7 +990,7 @@
         <v>34</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>-0.71</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>34</v>
@@ -999,7 +999,7 @@
         <v>34</v>
       </c>
       <c r="R5">
-        <v>19.713</v>
+        <v>21.601</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>35</v>
@@ -1055,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>-0.63</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>34</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="R6">
-        <v>16.9298</v>
+        <v>18.5307</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>35</v>
@@ -1120,7 +1120,7 @@
         <v>34</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>34</v>
@@ -1129,7 +1129,7 @@
         <v>34</v>
       </c>
       <c r="R7">
-        <v>15.8789</v>
+        <v>17.4459</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>35</v>
@@ -1188,13 +1188,13 @@
         <v>34</v>
       </c>
       <c r="P8">
-        <v>-137.5</v>
+        <v>3.71</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>35</v>
+      <c r="R8">
+        <v>22.0129</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>35</v>
@@ -1253,13 +1253,13 @@
         <v>34</v>
       </c>
       <c r="P9">
-        <v>-137.5</v>
+        <v>3.12</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>35</v>
+      <c r="R9">
+        <v>19.0612</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>35</v>
@@ -1318,13 +1318,13 @@
         <v>34</v>
       </c>
       <c r="P10">
-        <v>-137.5</v>
+        <v>3.12</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>35</v>
+      <c r="R10">
+        <v>18.0236</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>35</v>
@@ -1386,10 +1386,10 @@
         <v>34</v>
       </c>
       <c r="Q11">
-        <v>-137.5</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>35</v>
+        <v>4.59</v>
+      </c>
+      <c r="R11">
+        <v>21.6501</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>35</v>
@@ -1451,10 +1451,10 @@
         <v>34</v>
       </c>
       <c r="Q12">
-        <v>-137.5</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>18.5365</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>35</v>
@@ -1516,10 +1516,10 @@
         <v>34</v>
       </c>
       <c r="Q13">
-        <v>-137.5</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>35</v>
+        <v>3.91</v>
+      </c>
+      <c r="R13">
+        <v>17.3613</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>35</v>
@@ -1572,7 +1572,7 @@
         <v>33</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>-1.66</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>34</v>
@@ -1584,7 +1584,7 @@
         <v>34</v>
       </c>
       <c r="R14">
-        <v>28.5767</v>
+        <v>31.4337</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>35</v>
@@ -1637,7 +1637,7 @@
         <v>33</v>
       </c>
       <c r="N15">
-        <v>100</v>
+        <v>-1.51</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>34</v>
@@ -1649,7 +1649,7 @@
         <v>34</v>
       </c>
       <c r="R15">
-        <v>23.1725</v>
+        <v>25.3348</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>35</v>
@@ -1702,7 +1702,7 @@
         <v>33</v>
       </c>
       <c r="N16">
-        <v>100</v>
+        <v>-1.44</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>34</v>
@@ -1714,7 +1714,7 @@
         <v>34</v>
       </c>
       <c r="R16">
-        <v>21.1163</v>
+        <v>23.148</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>35</v>
@@ -1770,7 +1770,7 @@
         <v>34</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>-0.93</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>34</v>
@@ -1779,7 +1779,7 @@
         <v>34</v>
       </c>
       <c r="R17">
-        <v>28.0717</v>
+        <v>30.8066</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>35</v>
@@ -1835,7 +1835,7 @@
         <v>34</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>-0.85</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>34</v>
@@ -1844,7 +1844,7 @@
         <v>34</v>
       </c>
       <c r="R18">
-        <v>22.6046</v>
+        <v>24.802</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>35</v>
@@ -1900,7 +1900,7 @@
         <v>34</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>-0.78</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>34</v>
@@ -1909,7 +1909,7 @@
         <v>34</v>
       </c>
       <c r="R19">
-        <v>20.3399</v>
+        <v>22.3301</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>35</v>
@@ -1968,13 +1968,13 @@
         <v>34</v>
       </c>
       <c r="P20">
-        <v>-137.5</v>
+        <v>5.859999999999999</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>35</v>
+      <c r="R20">
+        <v>31.3202</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>35</v>
@@ -2033,13 +2033,13 @@
         <v>34</v>
       </c>
       <c r="P21">
-        <v>-137.5</v>
+        <v>4.39</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>35</v>
+      <c r="R21">
+        <v>25.453</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>35</v>
@@ -2098,13 +2098,13 @@
         <v>34</v>
       </c>
       <c r="P22">
-        <v>-137.5</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>35</v>
+      <c r="R22">
+        <v>23.0667</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>35</v>
@@ -2166,10 +2166,10 @@
         <v>34</v>
       </c>
       <c r="Q23">
-        <v>-137.5</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>35</v>
+        <v>7.03</v>
+      </c>
+      <c r="R23">
+        <v>30.833</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>35</v>
@@ -2231,10 +2231,10 @@
         <v>34</v>
       </c>
       <c r="Q24">
-        <v>-137.5</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>35</v>
+        <v>5.47</v>
+      </c>
+      <c r="R24">
+        <v>24.7003</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>35</v>
@@ -2296,10 +2296,10 @@
         <v>34</v>
       </c>
       <c r="Q25">
-        <v>-137.5</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>35</v>
+        <v>4.88</v>
+      </c>
+      <c r="R25">
+        <v>22.2598</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>35</v>
@@ -2352,7 +2352,7 @@
         <v>33</v>
       </c>
       <c r="N26">
-        <v>100</v>
+        <v>-1.07</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>34</v>
@@ -2364,7 +2364,7 @@
         <v>34</v>
       </c>
       <c r="R26">
-        <v>15.3552</v>
+        <v>16.81</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>35</v>
@@ -2417,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="N27">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>34</v>
@@ -2429,7 +2429,7 @@
         <v>34</v>
       </c>
       <c r="R27">
-        <v>14.0249</v>
+        <v>15.3625</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>35</v>
@@ -2482,7 +2482,7 @@
         <v>33</v>
       </c>
       <c r="N28">
-        <v>100</v>
+        <v>-0.93</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>34</v>
@@ -2494,7 +2494,7 @@
         <v>34</v>
       </c>
       <c r="R28">
-        <v>13.8317</v>
+        <v>15.2141</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>35</v>
@@ -2550,7 +2550,7 @@
         <v>34</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>34</v>
@@ -2559,7 +2559,7 @@
         <v>34</v>
       </c>
       <c r="R29">
-        <v>15.0241</v>
+        <v>16.4671</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>35</v>
@@ -2615,7 +2615,7 @@
         <v>34</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>-0.49</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>34</v>
@@ -2624,7 +2624,7 @@
         <v>34</v>
       </c>
       <c r="R30">
-        <v>13.5827</v>
+        <v>14.8712</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>35</v>
@@ -2680,7 +2680,7 @@
         <v>34</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>-0.34</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>34</v>
@@ -2689,7 +2689,7 @@
         <v>34</v>
       </c>
       <c r="R31">
-        <v>13.1909</v>
+        <v>14.4508</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>35</v>
@@ -2748,13 +2748,13 @@
         <v>34</v>
       </c>
       <c r="P32">
-        <v>-137.5</v>
+        <v>2.73</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R32" s="2" t="s">
-        <v>35</v>
+      <c r="R32">
+        <v>16.8496</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>35</v>
@@ -2813,13 +2813,13 @@
         <v>34</v>
       </c>
       <c r="P33">
-        <v>-137.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>35</v>
+      <c r="R33">
+        <v>15.3907</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>35</v>
@@ -2878,13 +2878,13 @@
         <v>34</v>
       </c>
       <c r="P34">
-        <v>-137.5</v>
+        <v>2.83</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>35</v>
+      <c r="R34">
+        <v>15.0203</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>35</v>
@@ -2946,10 +2946,10 @@
         <v>34</v>
       </c>
       <c r="Q35">
-        <v>-137.5</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>35</v>
+        <v>3.61</v>
+      </c>
+      <c r="R35">
+        <v>16.3421</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>35</v>
@@ -3011,10 +3011,10 @@
         <v>34</v>
       </c>
       <c r="Q36">
-        <v>-137.5</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>35</v>
+        <v>3.42</v>
+      </c>
+      <c r="R36">
+        <v>14.723</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>35</v>
@@ -3076,10 +3076,10 @@
         <v>34</v>
       </c>
       <c r="Q37">
-        <v>-137.5</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>35</v>
+        <v>3.52</v>
+      </c>
+      <c r="R37">
+        <v>14.3523</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>35</v>
@@ -3161,19 +3161,19 @@
         <v>94</v>
       </c>
       <c r="N39" s="1">
-        <v>100</v>
+        <v>-1.66</v>
       </c>
       <c r="O39" s="1">
-        <v>100</v>
+        <v>-0.93</v>
       </c>
       <c r="P39" s="1">
-        <v>-137.5</v>
+        <v>2.54</v>
       </c>
       <c r="Q39" s="1">
-        <v>-137.5</v>
+        <v>3.42</v>
       </c>
       <c r="R39" s="1">
-        <v>13.1909</v>
+        <v>14.3523</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>34</v>
@@ -3190,19 +3190,19 @@
         <v>95</v>
       </c>
       <c r="N40" s="1">
-        <v>100</v>
+        <v>-0.93</v>
       </c>
       <c r="O40" s="1">
-        <v>100</v>
+        <v>-0.34</v>
       </c>
       <c r="P40" s="1">
-        <v>-137.5</v>
+        <v>5.859999999999999</v>
       </c>
       <c r="Q40" s="1">
-        <v>-137.5</v>
+        <v>7.03</v>
       </c>
       <c r="R40" s="1">
-        <v>28.5767</v>
+        <v>31.4337</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>34</v>
@@ -3239,19 +3239,19 @@
         <v>100</v>
       </c>
       <c r="N45" s="1">
-        <v>100</v>
+        <v>-1.252222222222222</v>
       </c>
       <c r="O45" s="1">
-        <v>100</v>
+        <v>-0.6499999999999999</v>
       </c>
       <c r="P45" s="1">
-        <v>-137.5</v>
+        <v>3.588888888888889</v>
       </c>
       <c r="Q45" s="1">
-        <v>-137.5</v>
+        <v>4.492222222222223</v>
       </c>
       <c r="R45" s="1">
-        <v>18.63383888888889</v>
+        <v>20.408325</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>34</v>
@@ -3268,19 +3268,19 @@
         <v>101</v>
       </c>
       <c r="N46" s="1">
-        <v>0</v>
+        <v>0.2313140134957374</v>
       </c>
       <c r="O46" s="1">
-        <v>0</v>
+        <v>0.1754992877478424</v>
       </c>
       <c r="P46" s="1">
-        <v>0</v>
+        <v>0.9908968378241381</v>
       </c>
       <c r="Q46" s="1">
-        <v>0</v>
+        <v>1.106081951733513</v>
       </c>
       <c r="R46" s="1">
-        <v>4.571783172308018</v>
+        <v>5.036583857105208</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>34</v>
@@ -3297,19 +3297,19 @@
         <v>102</v>
       </c>
       <c r="N47" s="1">
-        <v>0</v>
+        <v>18.47228146816004</v>
       </c>
       <c r="O47" s="1">
-        <v>0</v>
+        <v>26.99989042274499</v>
       </c>
       <c r="P47" s="1">
-        <v>0</v>
+        <v>27.61012860810292</v>
       </c>
       <c r="Q47" s="1">
-        <v>0</v>
+        <v>24.62215573980118</v>
       </c>
       <c r="R47" s="1">
-        <v>24.53484330077638</v>
+        <v>24.67906531822286</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>34</v>

--- a/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
+++ b/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
@@ -792,7 +792,7 @@
         <v>33</v>
       </c>
       <c r="N2">
-        <v>-1.29</v>
+        <v>-3.71</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>34</v>
@@ -804,7 +804,7 @@
         <v>34</v>
       </c>
       <c r="R2">
-        <v>21.908</v>
+        <v>36.00230000000001</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>35</v>
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="N3">
-        <v>-1.22</v>
+        <v>-3.05</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>34</v>
@@ -869,7 +869,7 @@
         <v>34</v>
       </c>
       <c r="R3">
-        <v>19.0333</v>
+        <v>30.7438</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>35</v>
@@ -922,7 +922,7 @@
         <v>33</v>
       </c>
       <c r="N4">
-        <v>-1.15</v>
+        <v>-2.61</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>34</v>
@@ -934,7 +934,7 @@
         <v>34</v>
       </c>
       <c r="R4">
-        <v>18.1933</v>
+        <v>28.8306</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>35</v>
@@ -990,7 +990,7 @@
         <v>34</v>
       </c>
       <c r="O5">
-        <v>-0.71</v>
+        <v>0.02</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>34</v>
@@ -999,7 +999,7 @@
         <v>34</v>
       </c>
       <c r="R5">
-        <v>21.601</v>
+        <v>34.5566</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>35</v>
@@ -1055,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="O6">
-        <v>-0.63</v>
+        <v>-0.05</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>34</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="R6">
-        <v>18.5307</v>
+        <v>29.5536</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>35</v>
@@ -1120,7 +1120,7 @@
         <v>34</v>
       </c>
       <c r="O7">
-        <v>-0.5600000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>34</v>
@@ -1129,7 +1129,7 @@
         <v>34</v>
       </c>
       <c r="R7">
-        <v>17.4459</v>
+        <v>27.6261</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>35</v>
@@ -1188,13 +1188,13 @@
         <v>34</v>
       </c>
       <c r="P8">
-        <v>3.71</v>
+        <v>4.69</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R8">
-        <v>22.0129</v>
+        <v>35.8995</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>35</v>
@@ -1253,13 +1253,13 @@
         <v>34</v>
       </c>
       <c r="P9">
-        <v>3.12</v>
+        <v>4.1</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R9">
-        <v>19.0612</v>
+        <v>30.7859</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>35</v>
@@ -1318,13 +1318,13 @@
         <v>34</v>
       </c>
       <c r="P10">
-        <v>3.12</v>
+        <v>4.3</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R10">
-        <v>18.0236</v>
+        <v>28.8635</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>35</v>
@@ -1386,10 +1386,10 @@
         <v>34</v>
       </c>
       <c r="Q11">
-        <v>4.59</v>
+        <v>10.25</v>
       </c>
       <c r="R11">
-        <v>21.6501</v>
+        <v>34.4721</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>35</v>
@@ -1451,10 +1451,10 @@
         <v>34</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>8.59</v>
       </c>
       <c r="R12">
-        <v>18.5365</v>
+        <v>29.4517</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>35</v>
@@ -1516,10 +1516,10 @@
         <v>34</v>
       </c>
       <c r="Q13">
-        <v>3.91</v>
+        <v>8.01</v>
       </c>
       <c r="R13">
-        <v>17.3613</v>
+        <v>27.705</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>35</v>
@@ -1572,7 +1572,7 @@
         <v>33</v>
       </c>
       <c r="N14">
-        <v>-1.66</v>
+        <v>-5.1</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>34</v>
@@ -1584,7 +1584,7 @@
         <v>34</v>
       </c>
       <c r="R14">
-        <v>31.4337</v>
+        <v>49.9955</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>35</v>
@@ -1637,7 +1637,7 @@
         <v>33</v>
       </c>
       <c r="N15">
-        <v>-1.51</v>
+        <v>-4.08</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>34</v>
@@ -1649,7 +1649,7 @@
         <v>34</v>
       </c>
       <c r="R15">
-        <v>25.3348</v>
+        <v>40.00490000000001</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>35</v>
@@ -1702,7 +1702,7 @@
         <v>33</v>
       </c>
       <c r="N16">
-        <v>-1.44</v>
+        <v>-3.49</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>34</v>
@@ -1714,7 +1714,7 @@
         <v>34</v>
       </c>
       <c r="R16">
-        <v>23.148</v>
+        <v>35.9542</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>35</v>
@@ -1770,7 +1770,7 @@
         <v>34</v>
       </c>
       <c r="O17">
-        <v>-0.93</v>
+        <v>0.54</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>34</v>
@@ -1779,7 +1779,7 @@
         <v>34</v>
       </c>
       <c r="R17">
-        <v>30.8066</v>
+        <v>47.9498</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>35</v>
@@ -1835,7 +1835,7 @@
         <v>34</v>
       </c>
       <c r="O18">
-        <v>-0.85</v>
+        <v>0.24</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>34</v>
@@ -1844,7 +1844,7 @@
         <v>34</v>
       </c>
       <c r="R18">
-        <v>24.802</v>
+        <v>38.4266</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>35</v>
@@ -1900,7 +1900,7 @@
         <v>34</v>
       </c>
       <c r="O19">
-        <v>-0.78</v>
+        <v>0.1</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>34</v>
@@ -1909,7 +1909,7 @@
         <v>34</v>
       </c>
       <c r="R19">
-        <v>22.3301</v>
+        <v>34.5114</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>35</v>
@@ -1968,13 +1968,13 @@
         <v>34</v>
       </c>
       <c r="P20">
-        <v>5.859999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R20">
-        <v>31.3202</v>
+        <v>49.8948</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>35</v>
@@ -2033,13 +2033,13 @@
         <v>34</v>
       </c>
       <c r="P21">
-        <v>4.39</v>
+        <v>5.08</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R21">
-        <v>25.453</v>
+        <v>39.9059</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>35</v>
@@ -2098,13 +2098,13 @@
         <v>34</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>4.88</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R22">
-        <v>23.0667</v>
+        <v>35.8867</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>35</v>
@@ -2166,10 +2166,10 @@
         <v>34</v>
       </c>
       <c r="Q23">
-        <v>7.03</v>
+        <v>14.94</v>
       </c>
       <c r="R23">
-        <v>30.833</v>
+        <v>47.8983</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>35</v>
@@ -2231,10 +2231,10 @@
         <v>34</v>
       </c>
       <c r="Q24">
-        <v>5.47</v>
+        <v>11.33</v>
       </c>
       <c r="R24">
-        <v>24.7003</v>
+        <v>38.5284</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>35</v>
@@ -2296,10 +2296,10 @@
         <v>34</v>
       </c>
       <c r="Q25">
-        <v>4.88</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="R25">
-        <v>22.2598</v>
+        <v>34.37670000000001</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>35</v>
@@ -2352,7 +2352,7 @@
         <v>33</v>
       </c>
       <c r="N26">
-        <v>-1.07</v>
+        <v>-2.76</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>34</v>
@@ -2364,7 +2364,7 @@
         <v>34</v>
       </c>
       <c r="R26">
-        <v>16.81</v>
+        <v>27.9612</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>35</v>
@@ -2417,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="N27">
-        <v>-1</v>
+        <v>-2.39</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>34</v>
@@ -2429,7 +2429,7 @@
         <v>34</v>
       </c>
       <c r="R27">
-        <v>15.3625</v>
+        <v>25.2708</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>35</v>
@@ -2482,7 +2482,7 @@
         <v>33</v>
       </c>
       <c r="N28">
-        <v>-0.93</v>
+        <v>-2.03</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>34</v>
@@ -2494,7 +2494,7 @@
         <v>34</v>
       </c>
       <c r="R28">
-        <v>15.2141</v>
+        <v>24.5418</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>35</v>
@@ -2550,7 +2550,7 @@
         <v>34</v>
       </c>
       <c r="O29">
-        <v>-0.5600000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>34</v>
@@ -2559,7 +2559,7 @@
         <v>34</v>
       </c>
       <c r="R29">
-        <v>16.4671</v>
+        <v>26.778</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>35</v>
@@ -2615,7 +2615,7 @@
         <v>34</v>
       </c>
       <c r="O30">
-        <v>-0.49</v>
+        <v>-0.05</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>34</v>
@@ -2624,7 +2624,7 @@
         <v>34</v>
       </c>
       <c r="R30">
-        <v>14.8712</v>
+        <v>24.1598</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>35</v>
@@ -2680,7 +2680,7 @@
         <v>34</v>
       </c>
       <c r="O31">
-        <v>-0.34</v>
+        <v>0.24</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>34</v>
@@ -2689,7 +2689,7 @@
         <v>34</v>
       </c>
       <c r="R31">
-        <v>14.4508</v>
+        <v>23.4843</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>35</v>
@@ -2748,13 +2748,13 @@
         <v>34</v>
       </c>
       <c r="P32">
-        <v>2.73</v>
+        <v>4</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R32">
-        <v>16.8496</v>
+        <v>27.7839</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>35</v>
@@ -2813,13 +2813,13 @@
         <v>34</v>
       </c>
       <c r="P33">
-        <v>2.54</v>
+        <v>3.81</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R33">
-        <v>15.3907</v>
+        <v>25.254</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>35</v>
@@ -2878,13 +2878,13 @@
         <v>34</v>
       </c>
       <c r="P34">
-        <v>2.83</v>
+        <v>4.3</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R34">
-        <v>15.0203</v>
+        <v>24.6337</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>35</v>
@@ -2946,10 +2946,10 @@
         <v>34</v>
       </c>
       <c r="Q35">
-        <v>3.61</v>
+        <v>7.81</v>
       </c>
       <c r="R35">
-        <v>16.3421</v>
+        <v>26.8098</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>35</v>
@@ -3011,10 +3011,10 @@
         <v>34</v>
       </c>
       <c r="Q36">
-        <v>3.42</v>
+        <v>7.13</v>
       </c>
       <c r="R36">
-        <v>14.723</v>
+        <v>24.062</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>35</v>
@@ -3076,10 +3076,10 @@
         <v>34</v>
       </c>
       <c r="Q37">
-        <v>3.52</v>
+        <v>7.13</v>
       </c>
       <c r="R37">
-        <v>14.3523</v>
+        <v>23.4267</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>35</v>
@@ -3161,19 +3161,19 @@
         <v>94</v>
       </c>
       <c r="N39" s="1">
-        <v>-1.66</v>
+        <v>-5.1</v>
       </c>
       <c r="O39" s="1">
-        <v>-0.93</v>
+        <v>-0.12</v>
       </c>
       <c r="P39" s="1">
-        <v>2.54</v>
+        <v>3.81</v>
       </c>
       <c r="Q39" s="1">
-        <v>3.42</v>
+        <v>7.13</v>
       </c>
       <c r="R39" s="1">
-        <v>14.3523</v>
+        <v>23.4267</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>34</v>
@@ -3190,19 +3190,19 @@
         <v>95</v>
       </c>
       <c r="N40" s="1">
-        <v>-0.93</v>
+        <v>-2.03</v>
       </c>
       <c r="O40" s="1">
-        <v>-0.34</v>
+        <v>0.54</v>
       </c>
       <c r="P40" s="1">
-        <v>5.859999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="Q40" s="1">
-        <v>7.03</v>
+        <v>14.94</v>
       </c>
       <c r="R40" s="1">
-        <v>31.4337</v>
+        <v>49.9955</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>34</v>
@@ -3239,19 +3239,19 @@
         <v>100</v>
       </c>
       <c r="N45" s="1">
-        <v>-1.252222222222222</v>
+        <v>-3.246666666666667</v>
       </c>
       <c r="O45" s="1">
-        <v>-0.6499999999999999</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="P45" s="1">
-        <v>3.588888888888889</v>
+        <v>4.623333333333333</v>
       </c>
       <c r="Q45" s="1">
-        <v>4.492222222222223</v>
+        <v>9.46111111111111</v>
       </c>
       <c r="R45" s="1">
-        <v>20.408325</v>
+        <v>32.55527499999999</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>34</v>
@@ -3268,19 +3268,19 @@
         <v>101</v>
       </c>
       <c r="N46" s="1">
-        <v>0.2313140134957374</v>
+        <v>0.9005060305800905</v>
       </c>
       <c r="O46" s="1">
-        <v>0.1754992877478424</v>
+        <v>0.1917753315152337</v>
       </c>
       <c r="P46" s="1">
-        <v>0.9908968378241381</v>
+        <v>0.756350888587213</v>
       </c>
       <c r="Q46" s="1">
-        <v>1.106081951733513</v>
+        <v>2.376764581641019</v>
       </c>
       <c r="R46" s="1">
-        <v>5.036583857105208</v>
+        <v>7.582234828728673</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>34</v>
@@ -3297,19 +3297,19 @@
         <v>102</v>
       </c>
       <c r="N47" s="1">
-        <v>18.47228146816004</v>
+        <v>27.73632537721018</v>
       </c>
       <c r="O47" s="1">
-        <v>26.99989042274499</v>
+        <v>169.2135278075591</v>
       </c>
       <c r="P47" s="1">
-        <v>27.61012860810292</v>
+        <v>16.359428015585</v>
       </c>
       <c r="Q47" s="1">
-        <v>24.62215573980118</v>
+        <v>25.12141072785575</v>
       </c>
       <c r="R47" s="1">
-        <v>24.67906531822286</v>
+        <v>23.29034182241948</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>34</v>

--- a/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
+++ b/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
@@ -792,7 +792,7 @@
         <v>33</v>
       </c>
       <c r="N2">
-        <v>-3.71</v>
+        <v>-2.39</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>34</v>
@@ -804,7 +804,7 @@
         <v>34</v>
       </c>
       <c r="R2">
-        <v>36.00230000000001</v>
+        <v>28.534</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>35</v>
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="N3">
-        <v>-3.05</v>
+        <v>-2.1</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>34</v>
@@ -869,7 +869,7 @@
         <v>34</v>
       </c>
       <c r="R3">
-        <v>30.7438</v>
+        <v>24.4226</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>35</v>
@@ -922,7 +922,7 @@
         <v>33</v>
       </c>
       <c r="N4">
-        <v>-2.61</v>
+        <v>-1.88</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>34</v>
@@ -934,7 +934,7 @@
         <v>34</v>
       </c>
       <c r="R4">
-        <v>28.8306</v>
+        <v>22.9368</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>35</v>
@@ -990,7 +990,7 @@
         <v>34</v>
       </c>
       <c r="O5">
-        <v>0.02</v>
+        <v>-0.63</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>34</v>
@@ -999,7 +999,7 @@
         <v>34</v>
       </c>
       <c r="R5">
-        <v>34.5566</v>
+        <v>28.1878</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>35</v>
@@ -1055,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="O6">
-        <v>-0.05</v>
+        <v>-0.63</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>34</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="R6">
-        <v>29.5536</v>
+        <v>24.1319</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>35</v>
@@ -1120,7 +1120,7 @@
         <v>34</v>
       </c>
       <c r="O7">
-        <v>0.1</v>
+        <v>-0.49</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>34</v>
@@ -1129,7 +1129,7 @@
         <v>34</v>
       </c>
       <c r="R7">
-        <v>27.6261</v>
+        <v>22.5101</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>35</v>
@@ -1188,13 +1188,13 @@
         <v>34</v>
       </c>
       <c r="P8">
-        <v>4.69</v>
+        <v>4.1</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R8">
-        <v>35.8995</v>
+        <v>28.531</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>35</v>
@@ -1253,13 +1253,13 @@
         <v>34</v>
       </c>
       <c r="P9">
-        <v>4.1</v>
+        <v>3.32</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R9">
-        <v>30.7859</v>
+        <v>24.3975</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>35</v>
@@ -1318,13 +1318,13 @@
         <v>34</v>
       </c>
       <c r="P10">
-        <v>4.3</v>
+        <v>3.22</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R10">
-        <v>28.8635</v>
+        <v>22.8562</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>35</v>
@@ -1386,10 +1386,10 @@
         <v>34</v>
       </c>
       <c r="Q11">
-        <v>10.25</v>
+        <v>6.25</v>
       </c>
       <c r="R11">
-        <v>34.4721</v>
+        <v>28.091</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>35</v>
@@ -1451,10 +1451,10 @@
         <v>34</v>
       </c>
       <c r="Q12">
-        <v>8.59</v>
+        <v>5.27</v>
       </c>
       <c r="R12">
-        <v>29.4517</v>
+        <v>23.9739</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>35</v>
@@ -1516,10 +1516,10 @@
         <v>34</v>
       </c>
       <c r="Q13">
-        <v>8.01</v>
+        <v>4.98</v>
       </c>
       <c r="R13">
-        <v>27.705</v>
+        <v>22.3477</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>35</v>
@@ -1572,7 +1572,7 @@
         <v>33</v>
       </c>
       <c r="N14">
-        <v>-5.1</v>
+        <v>-2.91</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>34</v>
@@ -1584,7 +1584,7 @@
         <v>34</v>
       </c>
       <c r="R14">
-        <v>49.9955</v>
+        <v>39.6251</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>35</v>
@@ -1637,7 +1637,7 @@
         <v>33</v>
       </c>
       <c r="N15">
-        <v>-4.08</v>
+        <v>-2.47</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>34</v>
@@ -1649,7 +1649,7 @@
         <v>34</v>
       </c>
       <c r="R15">
-        <v>40.00490000000001</v>
+        <v>31.5665</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>35</v>
@@ -1702,7 +1702,7 @@
         <v>33</v>
       </c>
       <c r="N16">
-        <v>-3.49</v>
+        <v>-2.17</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>34</v>
@@ -1714,7 +1714,7 @@
         <v>34</v>
       </c>
       <c r="R16">
-        <v>35.9542</v>
+        <v>28.2686</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>35</v>
@@ -1770,7 +1770,7 @@
         <v>34</v>
       </c>
       <c r="O17">
-        <v>0.54</v>
+        <v>-0.27</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>34</v>
@@ -1779,7 +1779,7 @@
         <v>34</v>
       </c>
       <c r="R17">
-        <v>47.9498</v>
+        <v>38.7077</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>35</v>
@@ -1835,7 +1835,7 @@
         <v>34</v>
       </c>
       <c r="O18">
-        <v>0.24</v>
+        <v>-0.49</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>34</v>
@@ -1844,7 +1844,7 @@
         <v>34</v>
       </c>
       <c r="R18">
-        <v>38.4266</v>
+        <v>31.1459</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>35</v>
@@ -1900,7 +1900,7 @@
         <v>34</v>
       </c>
       <c r="O19">
-        <v>0.1</v>
+        <v>-0.49</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>34</v>
@@ -1909,7 +1909,7 @@
         <v>34</v>
       </c>
       <c r="R19">
-        <v>34.5114</v>
+        <v>27.7754</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>35</v>
@@ -1974,7 +1974,7 @@
         <v>34</v>
       </c>
       <c r="R20">
-        <v>49.8948</v>
+        <v>39.5866</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>35</v>
@@ -2033,13 +2033,13 @@
         <v>34</v>
       </c>
       <c r="P21">
-        <v>5.08</v>
+        <v>4.59</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R21">
-        <v>39.9059</v>
+        <v>31.6641</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>35</v>
@@ -2098,13 +2098,13 @@
         <v>34</v>
       </c>
       <c r="P22">
-        <v>4.88</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R22">
-        <v>35.8867</v>
+        <v>28.306</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>35</v>
@@ -2166,10 +2166,10 @@
         <v>34</v>
       </c>
       <c r="Q23">
-        <v>14.94</v>
+        <v>9.08</v>
       </c>
       <c r="R23">
-        <v>47.8983</v>
+        <v>38.6574</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>35</v>
@@ -2231,10 +2231,10 @@
         <v>34</v>
       </c>
       <c r="Q24">
-        <v>11.33</v>
+        <v>6.84</v>
       </c>
       <c r="R24">
-        <v>38.5284</v>
+        <v>31.1527</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>35</v>
@@ -2296,10 +2296,10 @@
         <v>34</v>
       </c>
       <c r="Q25">
-        <v>9.960000000000001</v>
+        <v>5.96</v>
       </c>
       <c r="R25">
-        <v>34.37670000000001</v>
+        <v>27.7954</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>35</v>
@@ -2352,7 +2352,7 @@
         <v>33</v>
       </c>
       <c r="N26">
-        <v>-2.76</v>
+        <v>-1.95</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>34</v>
@@ -2364,7 +2364,7 @@
         <v>34</v>
       </c>
       <c r="R26">
-        <v>27.9612</v>
+        <v>22.1457</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>35</v>
@@ -2417,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="N27">
-        <v>-2.39</v>
+        <v>-1.81</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>34</v>
@@ -2429,7 +2429,7 @@
         <v>34</v>
       </c>
       <c r="R27">
-        <v>25.2708</v>
+        <v>20.1522</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>35</v>
@@ -2482,7 +2482,7 @@
         <v>33</v>
       </c>
       <c r="N28">
-        <v>-2.03</v>
+        <v>-1.59</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>34</v>
@@ -2494,7 +2494,7 @@
         <v>34</v>
       </c>
       <c r="R28">
-        <v>24.5418</v>
+        <v>19.5415</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>35</v>
@@ -2550,7 +2550,7 @@
         <v>34</v>
       </c>
       <c r="O29">
-        <v>-0.12</v>
+        <v>-0.63</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>34</v>
@@ -2559,7 +2559,7 @@
         <v>34</v>
       </c>
       <c r="R29">
-        <v>26.778</v>
+        <v>21.9362</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>35</v>
@@ -2615,7 +2615,7 @@
         <v>34</v>
       </c>
       <c r="O30">
-        <v>-0.05</v>
+        <v>-0.49</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>34</v>
@@ -2624,7 +2624,7 @@
         <v>34</v>
       </c>
       <c r="R30">
-        <v>24.1598</v>
+        <v>19.7527</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>35</v>
@@ -2680,7 +2680,7 @@
         <v>34</v>
       </c>
       <c r="O31">
-        <v>0.24</v>
+        <v>-0.27</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>34</v>
@@ -2689,7 +2689,7 @@
         <v>34</v>
       </c>
       <c r="R31">
-        <v>23.4843</v>
+        <v>19.1563</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>35</v>
@@ -2748,13 +2748,13 @@
         <v>34</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>3.03</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R32">
-        <v>27.7839</v>
+        <v>22.2573</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>35</v>
@@ -2813,13 +2813,13 @@
         <v>34</v>
       </c>
       <c r="P33">
-        <v>3.81</v>
+        <v>2.83</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R33">
-        <v>25.254</v>
+        <v>19.9801</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>35</v>
@@ -2878,13 +2878,13 @@
         <v>34</v>
       </c>
       <c r="P34">
-        <v>4.3</v>
+        <v>3.03</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R34">
-        <v>24.6337</v>
+        <v>19.4802</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>35</v>
@@ -2946,10 +2946,10 @@
         <v>34</v>
       </c>
       <c r="Q35">
-        <v>7.81</v>
+        <v>4.88</v>
       </c>
       <c r="R35">
-        <v>26.8098</v>
+        <v>21.8769</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>35</v>
@@ -3011,10 +3011,10 @@
         <v>34</v>
       </c>
       <c r="Q36">
-        <v>7.13</v>
+        <v>4.489999999999999</v>
       </c>
       <c r="R36">
-        <v>24.062</v>
+        <v>19.6944</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>35</v>
@@ -3076,10 +3076,10 @@
         <v>34</v>
       </c>
       <c r="Q37">
-        <v>7.13</v>
+        <v>4.489999999999999</v>
       </c>
       <c r="R37">
-        <v>23.4267</v>
+        <v>19.2069</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>35</v>
@@ -3161,19 +3161,19 @@
         <v>94</v>
       </c>
       <c r="N39" s="1">
-        <v>-5.1</v>
+        <v>-2.91</v>
       </c>
       <c r="O39" s="1">
-        <v>-0.12</v>
+        <v>-0.63</v>
       </c>
       <c r="P39" s="1">
-        <v>3.81</v>
+        <v>2.83</v>
       </c>
       <c r="Q39" s="1">
-        <v>7.13</v>
+        <v>4.489999999999999</v>
       </c>
       <c r="R39" s="1">
-        <v>23.4267</v>
+        <v>19.1563</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>34</v>
@@ -3190,19 +3190,19 @@
         <v>95</v>
       </c>
       <c r="N40" s="1">
-        <v>-2.03</v>
+        <v>-1.59</v>
       </c>
       <c r="O40" s="1">
-        <v>0.54</v>
+        <v>-0.27</v>
       </c>
       <c r="P40" s="1">
         <v>6.45</v>
       </c>
       <c r="Q40" s="1">
-        <v>14.94</v>
+        <v>9.08</v>
       </c>
       <c r="R40" s="1">
-        <v>49.9955</v>
+        <v>39.6251</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>34</v>
@@ -3239,19 +3239,19 @@
         <v>100</v>
       </c>
       <c r="N45" s="1">
-        <v>-3.246666666666667</v>
+        <v>-2.141111111111111</v>
       </c>
       <c r="O45" s="1">
-        <v>0.1133333333333333</v>
+        <v>-0.4877777777777779</v>
       </c>
       <c r="P45" s="1">
-        <v>4.623333333333333</v>
+        <v>3.841111111111111</v>
       </c>
       <c r="Q45" s="1">
-        <v>9.46111111111111</v>
+        <v>5.804444444444446</v>
       </c>
       <c r="R45" s="1">
-        <v>32.55527499999999</v>
+        <v>26.12089722222222</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>34</v>
@@ -3268,19 +3268,19 @@
         <v>101</v>
       </c>
       <c r="N46" s="1">
-        <v>0.9005060305800905</v>
+        <v>0.3774017736649261</v>
       </c>
       <c r="O46" s="1">
-        <v>0.1917753315152337</v>
+        <v>0.1314684396244359</v>
       </c>
       <c r="P46" s="1">
-        <v>0.756350888587213</v>
+        <v>1.077800687041743</v>
       </c>
       <c r="Q46" s="1">
-        <v>2.376764581641019</v>
+        <v>1.386435165860922</v>
       </c>
       <c r="R46" s="1">
-        <v>7.582234828728673</v>
+        <v>5.992065252504353</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>34</v>
@@ -3297,19 +3297,19 @@
         <v>102</v>
       </c>
       <c r="N47" s="1">
-        <v>27.73632537721018</v>
+        <v>17.62644505959696</v>
       </c>
       <c r="O47" s="1">
-        <v>169.2135278075591</v>
+        <v>26.95252748564745</v>
       </c>
       <c r="P47" s="1">
-        <v>16.359428015585</v>
+        <v>28.05960712576132</v>
       </c>
       <c r="Q47" s="1">
-        <v>25.12141072785575</v>
+        <v>23.88575132608786</v>
       </c>
       <c r="R47" s="1">
-        <v>23.29034182241948</v>
+        <v>22.93973748882804</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>34</v>

--- a/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
+++ b/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
@@ -792,7 +792,7 @@
         <v>33</v>
       </c>
       <c r="N2">
-        <v>-2.39</v>
+        <v>-3.05</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>34</v>
@@ -804,7 +804,7 @@
         <v>34</v>
       </c>
       <c r="R2">
-        <v>28.534</v>
+        <v>28.2151</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>35</v>
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="N3">
-        <v>-2.1</v>
+        <v>-2.83</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>34</v>
@@ -869,7 +869,7 @@
         <v>34</v>
       </c>
       <c r="R3">
-        <v>24.4226</v>
+        <v>24.6959</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>35</v>
@@ -922,7 +922,7 @@
         <v>33</v>
       </c>
       <c r="N4">
-        <v>-1.88</v>
+        <v>-2.61</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>34</v>
@@ -934,7 +934,7 @@
         <v>34</v>
       </c>
       <c r="R4">
-        <v>22.9368</v>
+        <v>23.386</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>35</v>
@@ -990,7 +990,7 @@
         <v>34</v>
       </c>
       <c r="O5">
-        <v>-0.63</v>
+        <v>-2.54</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>34</v>
@@ -999,7 +999,7 @@
         <v>34</v>
       </c>
       <c r="R5">
-        <v>28.1878</v>
+        <v>27.9964</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>35</v>
@@ -1055,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="O6">
-        <v>-0.63</v>
+        <v>-2.25</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>34</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="R6">
-        <v>24.1319</v>
+        <v>23.9111</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>35</v>
@@ -1120,7 +1120,7 @@
         <v>34</v>
       </c>
       <c r="O7">
-        <v>-0.49</v>
+        <v>-2.03</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>34</v>
@@ -1129,7 +1129,7 @@
         <v>34</v>
       </c>
       <c r="R7">
-        <v>22.5101</v>
+        <v>22.3381</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>35</v>
@@ -1188,13 +1188,13 @@
         <v>34</v>
       </c>
       <c r="P8">
-        <v>4.1</v>
+        <v>5.08</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R8">
-        <v>28.531</v>
+        <v>28.4625</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>35</v>
@@ -1253,13 +1253,13 @@
         <v>34</v>
       </c>
       <c r="P9">
-        <v>3.32</v>
+        <v>4.3</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R9">
-        <v>24.3975</v>
+        <v>24.5356</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>35</v>
@@ -1318,13 +1318,13 @@
         <v>34</v>
       </c>
       <c r="P10">
-        <v>3.22</v>
+        <v>4.1</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R10">
-        <v>22.8562</v>
+        <v>23.3549</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>35</v>
@@ -1386,10 +1386,10 @@
         <v>34</v>
       </c>
       <c r="Q11">
-        <v>6.25</v>
+        <v>5.76</v>
       </c>
       <c r="R11">
-        <v>28.091</v>
+        <v>27.9838</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>35</v>
@@ -1451,10 +1451,10 @@
         <v>34</v>
       </c>
       <c r="Q12">
-        <v>5.27</v>
+        <v>5.08</v>
       </c>
       <c r="R12">
-        <v>23.9739</v>
+        <v>23.9641</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>35</v>
@@ -1519,7 +1519,7 @@
         <v>4.98</v>
       </c>
       <c r="R13">
-        <v>22.3477</v>
+        <v>22.2168</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>35</v>
@@ -1572,7 +1572,7 @@
         <v>33</v>
       </c>
       <c r="N14">
-        <v>-2.91</v>
+        <v>-3.93</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>34</v>
@@ -1584,7 +1584,7 @@
         <v>34</v>
       </c>
       <c r="R14">
-        <v>39.6251</v>
+        <v>39.4724</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>35</v>
@@ -1637,7 +1637,7 @@
         <v>33</v>
       </c>
       <c r="N15">
-        <v>-2.47</v>
+        <v>-3.56</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>34</v>
@@ -1649,7 +1649,7 @@
         <v>34</v>
       </c>
       <c r="R15">
-        <v>31.5665</v>
+        <v>32.00830000000001</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>35</v>
@@ -1702,7 +1702,7 @@
         <v>33</v>
       </c>
       <c r="N16">
-        <v>-2.17</v>
+        <v>-3.27</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>34</v>
@@ -1714,7 +1714,7 @@
         <v>34</v>
       </c>
       <c r="R16">
-        <v>28.2686</v>
+        <v>28.8234</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>35</v>
@@ -1770,7 +1770,7 @@
         <v>34</v>
       </c>
       <c r="O17">
-        <v>-0.27</v>
+        <v>-3.05</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>34</v>
@@ -1779,7 +1779,7 @@
         <v>34</v>
       </c>
       <c r="R17">
-        <v>38.7077</v>
+        <v>39.1703</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>35</v>
@@ -1835,7 +1835,7 @@
         <v>34</v>
       </c>
       <c r="O18">
-        <v>-0.49</v>
+        <v>-2.69</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>34</v>
@@ -1844,7 +1844,7 @@
         <v>34</v>
       </c>
       <c r="R18">
-        <v>31.1459</v>
+        <v>31.2011</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>35</v>
@@ -1900,7 +1900,7 @@
         <v>34</v>
       </c>
       <c r="O19">
-        <v>-0.49</v>
+        <v>-2.47</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>34</v>
@@ -1909,7 +1909,7 @@
         <v>34</v>
       </c>
       <c r="R19">
-        <v>27.7754</v>
+        <v>27.6874</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>35</v>
@@ -1968,13 +1968,13 @@
         <v>34</v>
       </c>
       <c r="P20">
-        <v>6.45</v>
+        <v>7.71</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R20">
-        <v>39.5866</v>
+        <v>39.3749</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>35</v>
@@ -2033,13 +2033,13 @@
         <v>34</v>
       </c>
       <c r="P21">
-        <v>4.59</v>
+        <v>5.76</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R21">
-        <v>31.6641</v>
+        <v>32.0401</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>35</v>
@@ -2098,13 +2098,13 @@
         <v>34</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>5.08</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R22">
-        <v>28.306</v>
+        <v>28.9441</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>35</v>
@@ -2166,10 +2166,10 @@
         <v>34</v>
       </c>
       <c r="Q23">
-        <v>9.08</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R23">
-        <v>38.6574</v>
+        <v>39.1473</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>35</v>
@@ -2231,10 +2231,10 @@
         <v>34</v>
       </c>
       <c r="Q24">
-        <v>6.84</v>
+        <v>6.64</v>
       </c>
       <c r="R24">
-        <v>31.1527</v>
+        <v>31.2617</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>35</v>
@@ -2296,10 +2296,10 @@
         <v>34</v>
       </c>
       <c r="Q25">
-        <v>5.96</v>
+        <v>6.050000000000001</v>
       </c>
       <c r="R25">
-        <v>27.7954</v>
+        <v>27.7952</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>35</v>
@@ -2352,7 +2352,7 @@
         <v>33</v>
       </c>
       <c r="N26">
-        <v>-1.95</v>
+        <v>-2.47</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>34</v>
@@ -2364,7 +2364,7 @@
         <v>34</v>
       </c>
       <c r="R26">
-        <v>22.1457</v>
+        <v>22.203</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>35</v>
@@ -2417,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="N27">
-        <v>-1.81</v>
+        <v>-2.25</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>34</v>
@@ -2429,7 +2429,7 @@
         <v>34</v>
       </c>
       <c r="R27">
-        <v>20.1522</v>
+        <v>20.3383</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>35</v>
@@ -2482,7 +2482,7 @@
         <v>33</v>
       </c>
       <c r="N28">
-        <v>-1.59</v>
+        <v>-2.1</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>34</v>
@@ -2494,7 +2494,7 @@
         <v>34</v>
       </c>
       <c r="R28">
-        <v>19.5415</v>
+        <v>20.1272</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>35</v>
@@ -2550,7 +2550,7 @@
         <v>34</v>
       </c>
       <c r="O29">
-        <v>-0.63</v>
+        <v>-2.1</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>34</v>
@@ -2559,7 +2559,7 @@
         <v>34</v>
       </c>
       <c r="R29">
-        <v>21.9362</v>
+        <v>21.7178</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>35</v>
@@ -2615,7 +2615,7 @@
         <v>34</v>
       </c>
       <c r="O30">
-        <v>-0.49</v>
+        <v>-1.88</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>34</v>
@@ -2624,7 +2624,7 @@
         <v>34</v>
       </c>
       <c r="R30">
-        <v>19.7527</v>
+        <v>19.7625</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>35</v>
@@ -2680,7 +2680,7 @@
         <v>34</v>
       </c>
       <c r="O31">
-        <v>-0.27</v>
+        <v>-1.51</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>34</v>
@@ -2689,7 +2689,7 @@
         <v>34</v>
       </c>
       <c r="R31">
-        <v>19.1563</v>
+        <v>19</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>35</v>
@@ -2748,13 +2748,13 @@
         <v>34</v>
       </c>
       <c r="P32">
-        <v>3.03</v>
+        <v>3.91</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R32">
-        <v>22.2573</v>
+        <v>22.1585</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>35</v>
@@ -2813,13 +2813,13 @@
         <v>34</v>
       </c>
       <c r="P33">
-        <v>2.83</v>
+        <v>3.61</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R33">
-        <v>19.9801</v>
+        <v>20.3662</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>35</v>
@@ -2878,13 +2878,13 @@
         <v>34</v>
       </c>
       <c r="P34">
-        <v>3.03</v>
+        <v>3.81</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R34">
-        <v>19.4802</v>
+        <v>20.0548</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>35</v>
@@ -2946,10 +2946,10 @@
         <v>34</v>
       </c>
       <c r="Q35">
-        <v>4.88</v>
+        <v>4.59</v>
       </c>
       <c r="R35">
-        <v>21.8769</v>
+        <v>21.7015</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>35</v>
@@ -3011,10 +3011,10 @@
         <v>34</v>
       </c>
       <c r="Q36">
-        <v>4.489999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="R36">
-        <v>19.6944</v>
+        <v>19.7761</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>35</v>
@@ -3079,7 +3079,7 @@
         <v>4.489999999999999</v>
       </c>
       <c r="R37">
-        <v>19.2069</v>
+        <v>19.0925</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>35</v>
@@ -3161,19 +3161,19 @@
         <v>94</v>
       </c>
       <c r="N39" s="1">
-        <v>-2.91</v>
+        <v>-3.93</v>
       </c>
       <c r="O39" s="1">
-        <v>-0.63</v>
+        <v>-3.05</v>
       </c>
       <c r="P39" s="1">
-        <v>2.83</v>
+        <v>3.61</v>
       </c>
       <c r="Q39" s="1">
-        <v>4.489999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="R39" s="1">
-        <v>19.1563</v>
+        <v>19</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>34</v>
@@ -3190,19 +3190,19 @@
         <v>95</v>
       </c>
       <c r="N40" s="1">
-        <v>-1.59</v>
+        <v>-2.1</v>
       </c>
       <c r="O40" s="1">
-        <v>-0.27</v>
+        <v>-1.51</v>
       </c>
       <c r="P40" s="1">
-        <v>6.45</v>
+        <v>7.71</v>
       </c>
       <c r="Q40" s="1">
-        <v>9.08</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R40" s="1">
-        <v>39.6251</v>
+        <v>39.4724</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>34</v>
@@ -3239,19 +3239,19 @@
         <v>100</v>
       </c>
       <c r="N45" s="1">
-        <v>-2.141111111111111</v>
+        <v>-2.896666666666667</v>
       </c>
       <c r="O45" s="1">
-        <v>-0.4877777777777779</v>
+        <v>-2.28</v>
       </c>
       <c r="P45" s="1">
-        <v>3.841111111111111</v>
+        <v>4.817777777777778</v>
       </c>
       <c r="Q45" s="1">
-        <v>5.804444444444446</v>
+        <v>5.565555555555555</v>
       </c>
       <c r="R45" s="1">
-        <v>26.12089722222222</v>
+        <v>26.23013611111112</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>34</v>
@@ -3268,19 +3268,19 @@
         <v>101</v>
       </c>
       <c r="N46" s="1">
-        <v>0.3774017736649261</v>
+        <v>0.57659922534345</v>
       </c>
       <c r="O46" s="1">
-        <v>0.1314684396244359</v>
+        <v>0.4363230199952528</v>
       </c>
       <c r="P46" s="1">
-        <v>1.077800687041743</v>
+        <v>1.223472088205237</v>
       </c>
       <c r="Q46" s="1">
-        <v>1.386435165860922</v>
+        <v>1.185843451454712</v>
       </c>
       <c r="R46" s="1">
-        <v>5.992065252504353</v>
+        <v>6.012939939143874</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>34</v>
@@ -3297,19 +3297,19 @@
         <v>102</v>
       </c>
       <c r="N47" s="1">
-        <v>17.62644505959696</v>
+        <v>19.90561192209839</v>
       </c>
       <c r="O47" s="1">
-        <v>26.95252748564745</v>
+        <v>19.1369745611953</v>
       </c>
       <c r="P47" s="1">
-        <v>28.05960712576132</v>
+        <v>25.39494648027476</v>
       </c>
       <c r="Q47" s="1">
-        <v>23.88575132608786</v>
+        <v>21.30682983248635</v>
       </c>
       <c r="R47" s="1">
-        <v>22.93973748882804</v>
+        <v>22.92378474009056</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>34</v>

--- a/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
+++ b/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
@@ -792,7 +792,7 @@
         <v>33</v>
       </c>
       <c r="N2">
-        <v>-3.05</v>
+        <v>-2.17</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>34</v>
@@ -804,7 +804,7 @@
         <v>34</v>
       </c>
       <c r="R2">
-        <v>28.2151</v>
+        <v>25.691</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>35</v>
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="N3">
-        <v>-2.83</v>
+        <v>-2.1</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>34</v>
@@ -869,7 +869,7 @@
         <v>34</v>
       </c>
       <c r="R3">
-        <v>24.6959</v>
+        <v>22.4823</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>35</v>
@@ -922,7 +922,7 @@
         <v>33</v>
       </c>
       <c r="N4">
-        <v>-2.61</v>
+        <v>-1.88</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>34</v>
@@ -934,7 +934,7 @@
         <v>34</v>
       </c>
       <c r="R4">
-        <v>23.386</v>
+        <v>21.1507</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>35</v>
@@ -990,7 +990,7 @@
         <v>34</v>
       </c>
       <c r="O5">
-        <v>-2.54</v>
+        <v>-1.81</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>34</v>
@@ -999,7 +999,7 @@
         <v>34</v>
       </c>
       <c r="R5">
-        <v>27.9964</v>
+        <v>25.9175</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>35</v>
@@ -1055,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="O6">
-        <v>-2.25</v>
+        <v>-1.73</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>34</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="R6">
-        <v>23.9111</v>
+        <v>22.3896</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>35</v>
@@ -1120,7 +1120,7 @@
         <v>34</v>
       </c>
       <c r="O7">
-        <v>-2.03</v>
+        <v>-1.59</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>34</v>
@@ -1129,7 +1129,7 @@
         <v>34</v>
       </c>
       <c r="R7">
-        <v>22.3381</v>
+        <v>20.9704</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>35</v>
@@ -1188,13 +1188,13 @@
         <v>34</v>
       </c>
       <c r="P8">
-        <v>5.08</v>
+        <v>4.39</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R8">
-        <v>28.4625</v>
+        <v>25.7023</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>35</v>
@@ -1253,13 +1253,13 @@
         <v>34</v>
       </c>
       <c r="P9">
-        <v>4.3</v>
+        <v>3.61</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R9">
-        <v>24.5356</v>
+        <v>22.4367</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>35</v>
@@ -1318,13 +1318,13 @@
         <v>34</v>
       </c>
       <c r="P10">
-        <v>4.1</v>
+        <v>3.52</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R10">
-        <v>23.3549</v>
+        <v>21.1413</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>35</v>
@@ -1386,10 +1386,10 @@
         <v>34</v>
       </c>
       <c r="Q11">
-        <v>5.76</v>
+        <v>4.790000000000001</v>
       </c>
       <c r="R11">
-        <v>27.9838</v>
+        <v>25.9565</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>35</v>
@@ -1451,10 +1451,10 @@
         <v>34</v>
       </c>
       <c r="Q12">
-        <v>5.08</v>
+        <v>4.2</v>
       </c>
       <c r="R12">
-        <v>23.9641</v>
+        <v>22.481</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>35</v>
@@ -1516,10 +1516,10 @@
         <v>34</v>
       </c>
       <c r="Q13">
-        <v>4.98</v>
+        <v>4.1</v>
       </c>
       <c r="R13">
-        <v>22.2168</v>
+        <v>21.0321</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>35</v>
@@ -1572,7 +1572,7 @@
         <v>33</v>
       </c>
       <c r="N14">
-        <v>-3.93</v>
+        <v>-2.25</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>34</v>
@@ -1584,7 +1584,7 @@
         <v>34</v>
       </c>
       <c r="R14">
-        <v>39.4724</v>
+        <v>34.3444</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>35</v>
@@ -1637,7 +1637,7 @@
         <v>33</v>
       </c>
       <c r="N15">
-        <v>-3.56</v>
+        <v>-2.32</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>34</v>
@@ -1649,7 +1649,7 @@
         <v>34</v>
       </c>
       <c r="R15">
-        <v>32.00830000000001</v>
+        <v>28.1694</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>35</v>
@@ -1702,7 +1702,7 @@
         <v>33</v>
       </c>
       <c r="N16">
-        <v>-3.27</v>
+        <v>-2.17</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>34</v>
@@ -1714,7 +1714,7 @@
         <v>34</v>
       </c>
       <c r="R16">
-        <v>28.8234</v>
+        <v>25.407</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>35</v>
@@ -1770,7 +1770,7 @@
         <v>34</v>
       </c>
       <c r="O17">
-        <v>-3.05</v>
+        <v>-1.73</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>34</v>
@@ -1779,7 +1779,7 @@
         <v>34</v>
       </c>
       <c r="R17">
-        <v>39.1703</v>
+        <v>35.0621</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>35</v>
@@ -1835,7 +1835,7 @@
         <v>34</v>
       </c>
       <c r="O18">
-        <v>-2.69</v>
+        <v>-1.81</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>34</v>
@@ -1844,7 +1844,7 @@
         <v>34</v>
       </c>
       <c r="R18">
-        <v>31.2011</v>
+        <v>28.399</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>35</v>
@@ -1900,7 +1900,7 @@
         <v>34</v>
       </c>
       <c r="O19">
-        <v>-2.47</v>
+        <v>-1.81</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>34</v>
@@ -1909,7 +1909,7 @@
         <v>34</v>
       </c>
       <c r="R19">
-        <v>27.6874</v>
+        <v>25.4035</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>35</v>
@@ -1968,13 +1968,13 @@
         <v>34</v>
       </c>
       <c r="P20">
-        <v>7.71</v>
+        <v>6.45</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R20">
-        <v>39.3749</v>
+        <v>34.3989</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>35</v>
@@ -2033,13 +2033,13 @@
         <v>34</v>
       </c>
       <c r="P21">
-        <v>5.76</v>
+        <v>4.790000000000001</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R21">
-        <v>32.0401</v>
+        <v>28.1086</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>35</v>
@@ -2098,13 +2098,13 @@
         <v>34</v>
       </c>
       <c r="P22">
-        <v>5.08</v>
+        <v>4.2</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R22">
-        <v>28.9441</v>
+        <v>25.496</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>35</v>
@@ -2166,10 +2166,10 @@
         <v>34</v>
       </c>
       <c r="Q23">
-        <v>8.199999999999999</v>
+        <v>6.350000000000001</v>
       </c>
       <c r="R23">
-        <v>39.1473</v>
+        <v>35.1314</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>35</v>
@@ -2231,10 +2231,10 @@
         <v>34</v>
       </c>
       <c r="Q24">
-        <v>6.64</v>
+        <v>5.180000000000001</v>
       </c>
       <c r="R24">
-        <v>31.2617</v>
+        <v>28.4855</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>35</v>
@@ -2296,10 +2296,10 @@
         <v>34</v>
       </c>
       <c r="Q25">
-        <v>6.050000000000001</v>
+        <v>4.790000000000001</v>
       </c>
       <c r="R25">
-        <v>27.7952</v>
+        <v>25.3921</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>35</v>
@@ -2352,7 +2352,7 @@
         <v>33</v>
       </c>
       <c r="N26">
-        <v>-2.47</v>
+        <v>-1.95</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>34</v>
@@ -2364,7 +2364,7 @@
         <v>34</v>
       </c>
       <c r="R26">
-        <v>22.203</v>
+        <v>20.7141</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>35</v>
@@ -2417,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="N27">
-        <v>-2.25</v>
+        <v>-1.73</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>34</v>
@@ -2429,7 +2429,7 @@
         <v>34</v>
       </c>
       <c r="R27">
-        <v>20.3383</v>
+        <v>18.8086</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>35</v>
@@ -2482,7 +2482,7 @@
         <v>33</v>
       </c>
       <c r="N28">
-        <v>-2.1</v>
+        <v>-1.59</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>34</v>
@@ -2494,7 +2494,7 @@
         <v>34</v>
       </c>
       <c r="R28">
-        <v>20.1272</v>
+        <v>18.5739</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>35</v>
@@ -2550,7 +2550,7 @@
         <v>34</v>
       </c>
       <c r="O29">
-        <v>-2.1</v>
+        <v>-1.73</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>34</v>
@@ -2559,7 +2559,7 @@
         <v>34</v>
       </c>
       <c r="R29">
-        <v>21.7178</v>
+        <v>20.8074</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>35</v>
@@ -2615,7 +2615,7 @@
         <v>34</v>
       </c>
       <c r="O30">
-        <v>-1.88</v>
+        <v>-1.51</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>34</v>
@@ -2624,7 +2624,7 @@
         <v>34</v>
       </c>
       <c r="R30">
-        <v>19.7625</v>
+        <v>18.8066</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>35</v>
@@ -2680,7 +2680,7 @@
         <v>34</v>
       </c>
       <c r="O31">
-        <v>-1.51</v>
+        <v>-1.29</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>34</v>
@@ -2689,7 +2689,7 @@
         <v>34</v>
       </c>
       <c r="R31">
-        <v>19</v>
+        <v>18.3085</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>35</v>
@@ -2748,13 +2748,13 @@
         <v>34</v>
       </c>
       <c r="P32">
-        <v>3.91</v>
+        <v>3.42</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R32">
-        <v>22.1585</v>
+        <v>20.5987</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>35</v>
@@ -2813,13 +2813,13 @@
         <v>34</v>
       </c>
       <c r="P33">
-        <v>3.61</v>
+        <v>3.12</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R33">
-        <v>20.3662</v>
+        <v>18.9277</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>35</v>
@@ -2878,13 +2878,13 @@
         <v>34</v>
       </c>
       <c r="P34">
-        <v>3.81</v>
+        <v>3.32</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R34">
-        <v>20.0548</v>
+        <v>18.5233</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>35</v>
@@ -2946,10 +2946,10 @@
         <v>34</v>
       </c>
       <c r="Q35">
-        <v>4.59</v>
+        <v>3.91</v>
       </c>
       <c r="R35">
-        <v>21.7015</v>
+        <v>20.7888</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>35</v>
@@ -3011,10 +3011,10 @@
         <v>34</v>
       </c>
       <c r="Q36">
-        <v>4.3</v>
+        <v>3.71</v>
       </c>
       <c r="R36">
-        <v>19.7761</v>
+        <v>18.9145</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>35</v>
@@ -3076,10 +3076,10 @@
         <v>34</v>
       </c>
       <c r="Q37">
-        <v>4.489999999999999</v>
+        <v>3.91</v>
       </c>
       <c r="R37">
-        <v>19.0925</v>
+        <v>18.3045</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>35</v>
@@ -3161,19 +3161,19 @@
         <v>94</v>
       </c>
       <c r="N39" s="1">
-        <v>-3.93</v>
+        <v>-2.32</v>
       </c>
       <c r="O39" s="1">
-        <v>-3.05</v>
+        <v>-1.81</v>
       </c>
       <c r="P39" s="1">
-        <v>3.61</v>
+        <v>3.12</v>
       </c>
       <c r="Q39" s="1">
-        <v>4.3</v>
+        <v>3.71</v>
       </c>
       <c r="R39" s="1">
-        <v>19</v>
+        <v>18.3045</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>34</v>
@@ -3190,19 +3190,19 @@
         <v>95</v>
       </c>
       <c r="N40" s="1">
-        <v>-2.1</v>
+        <v>-1.59</v>
       </c>
       <c r="O40" s="1">
-        <v>-1.51</v>
+        <v>-1.29</v>
       </c>
       <c r="P40" s="1">
-        <v>7.71</v>
+        <v>6.45</v>
       </c>
       <c r="Q40" s="1">
-        <v>8.199999999999999</v>
+        <v>6.350000000000001</v>
       </c>
       <c r="R40" s="1">
-        <v>39.4724</v>
+        <v>35.1314</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>34</v>
@@ -3239,19 +3239,19 @@
         <v>100</v>
       </c>
       <c r="N45" s="1">
-        <v>-2.896666666666667</v>
+        <v>-2.017777777777777</v>
       </c>
       <c r="O45" s="1">
-        <v>-2.28</v>
+        <v>-1.667777777777778</v>
       </c>
       <c r="P45" s="1">
-        <v>4.817777777777778</v>
+        <v>4.09111111111111</v>
       </c>
       <c r="Q45" s="1">
-        <v>5.565555555555555</v>
+        <v>4.54888888888889</v>
       </c>
       <c r="R45" s="1">
-        <v>26.23013611111112</v>
+        <v>23.97849722222222</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>34</v>
@@ -3268,19 +3268,19 @@
         <v>101</v>
       </c>
       <c r="N46" s="1">
-        <v>0.57659922534345</v>
+        <v>0.2327983284484556</v>
       </c>
       <c r="O46" s="1">
-        <v>0.4363230199952528</v>
+        <v>0.1653130214524204</v>
       </c>
       <c r="P46" s="1">
-        <v>1.223472088205237</v>
+        <v>0.9831745006688447</v>
       </c>
       <c r="Q46" s="1">
-        <v>1.185843451454712</v>
+        <v>0.7889436600704973</v>
       </c>
       <c r="R46" s="1">
-        <v>6.012939939143874</v>
+        <v>4.924726275838762</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>34</v>
@@ -3297,19 +3297,19 @@
         <v>102</v>
       </c>
       <c r="N47" s="1">
-        <v>19.90561192209839</v>
+        <v>11.53736209270981</v>
       </c>
       <c r="O47" s="1">
-        <v>19.1369745611953</v>
+        <v>9.912173171697422</v>
       </c>
       <c r="P47" s="1">
-        <v>25.39494648027476</v>
+        <v>24.0319676969571</v>
       </c>
       <c r="Q47" s="1">
-        <v>21.30682983248635</v>
+        <v>17.34365642558494</v>
       </c>
       <c r="R47" s="1">
-        <v>22.92378474009056</v>
+        <v>20.53809390220977</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>34</v>

--- a/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
+++ b/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="103">
   <si>
     <t>Process</t>
   </si>
@@ -118,10 +118,10 @@
     <t>rcworst_ccworst_t</t>
   </si>
   <si>
+    <t>error</t>
+  </si>
+  <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>error</t>
   </si>
   <si>
     <t>tsmc2ff (1)</t>
@@ -791,29 +791,29 @@
       <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="N2">
-        <v>-2.17</v>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2">
-        <v>25.691</v>
+        <v>35</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -856,29 +856,29 @@
       <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="N3">
-        <v>-2.1</v>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3">
-        <v>22.4823</v>
+        <v>35</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -921,29 +921,29 @@
       <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="N4">
-        <v>-1.88</v>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4">
-        <v>21.1507</v>
+        <v>35</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -987,28 +987,28 @@
         <v>33</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5">
-        <v>-1.81</v>
+        <v>35</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5">
-        <v>25.9175</v>
+        <v>35</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1052,28 +1052,28 @@
         <v>33</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6">
-        <v>-1.73</v>
+        <v>35</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6">
-        <v>22.3896</v>
+        <v>35</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1117,28 +1117,28 @@
         <v>33</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7">
-        <v>-1.59</v>
+        <v>35</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7">
-        <v>20.9704</v>
+        <v>35</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1182,19 +1182,19 @@
         <v>33</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8">
-        <v>4.39</v>
+        <v>35</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8">
-        <v>25.7023</v>
+        <v>35</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>35</v>
@@ -1203,7 +1203,7 @@
         <v>35</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1247,19 +1247,19 @@
         <v>33</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9">
-        <v>3.61</v>
+        <v>35</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9">
-        <v>22.4367</v>
+        <v>35</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>35</v>
@@ -1268,7 +1268,7 @@
         <v>35</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1312,19 +1312,19 @@
         <v>33</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10">
-        <v>3.52</v>
+        <v>35</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10">
-        <v>21.1413</v>
+        <v>35</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>35</v>
@@ -1333,7 +1333,7 @@
         <v>35</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1377,19 +1377,19 @@
         <v>33</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11">
-        <v>4.790000000000001</v>
-      </c>
-      <c r="R11">
-        <v>25.9565</v>
+        <v>35</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>35</v>
@@ -1398,7 +1398,7 @@
         <v>35</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1442,19 +1442,19 @@
         <v>33</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12">
-        <v>4.2</v>
-      </c>
-      <c r="R12">
-        <v>22.481</v>
+        <v>35</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>35</v>
@@ -1463,7 +1463,7 @@
         <v>35</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1507,19 +1507,19 @@
         <v>33</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13">
-        <v>4.1</v>
-      </c>
-      <c r="R13">
-        <v>21.0321</v>
+        <v>35</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>35</v>
@@ -1528,7 +1528,7 @@
         <v>35</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1571,29 +1571,29 @@
       <c r="M14" t="s">
         <v>33</v>
       </c>
-      <c r="N14">
-        <v>-2.25</v>
+      <c r="N14" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14">
-        <v>34.3444</v>
+        <v>35</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1636,29 +1636,29 @@
       <c r="M15" t="s">
         <v>33</v>
       </c>
-      <c r="N15">
-        <v>-2.32</v>
+      <c r="N15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15">
-        <v>28.1694</v>
+        <v>35</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1701,29 +1701,29 @@
       <c r="M16" t="s">
         <v>33</v>
       </c>
-      <c r="N16">
-        <v>-2.17</v>
+      <c r="N16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16">
-        <v>25.407</v>
+        <v>35</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1767,28 +1767,28 @@
         <v>33</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17">
-        <v>-1.73</v>
+        <v>35</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17">
-        <v>35.0621</v>
+        <v>35</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1832,28 +1832,28 @@
         <v>33</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18">
-        <v>-1.81</v>
+        <v>35</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R18">
-        <v>28.399</v>
+        <v>35</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1897,28 +1897,28 @@
         <v>33</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19">
-        <v>-1.81</v>
+        <v>35</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R19">
-        <v>25.4035</v>
+        <v>35</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1962,19 +1962,19 @@
         <v>33</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P20">
-        <v>6.45</v>
+        <v>35</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20">
-        <v>34.3989</v>
+        <v>35</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>35</v>
@@ -1983,7 +1983,7 @@
         <v>35</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2027,19 +2027,19 @@
         <v>33</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21">
-        <v>4.790000000000001</v>
+        <v>35</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R21">
-        <v>28.1086</v>
+        <v>35</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>35</v>
@@ -2048,7 +2048,7 @@
         <v>35</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2092,19 +2092,19 @@
         <v>33</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P22">
-        <v>4.2</v>
+        <v>35</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R22">
-        <v>25.496</v>
+        <v>35</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>35</v>
@@ -2113,7 +2113,7 @@
         <v>35</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2157,19 +2157,19 @@
         <v>33</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23">
-        <v>6.350000000000001</v>
-      </c>
-      <c r="R23">
-        <v>35.1314</v>
+        <v>35</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>35</v>
@@ -2178,7 +2178,7 @@
         <v>35</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2222,19 +2222,19 @@
         <v>33</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24">
-        <v>5.180000000000001</v>
-      </c>
-      <c r="R24">
-        <v>28.4855</v>
+        <v>35</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>35</v>
@@ -2243,7 +2243,7 @@
         <v>35</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2287,19 +2287,19 @@
         <v>33</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25">
-        <v>4.790000000000001</v>
-      </c>
-      <c r="R25">
-        <v>25.3921</v>
+        <v>35</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>35</v>
@@ -2308,7 +2308,7 @@
         <v>35</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2351,29 +2351,29 @@
       <c r="M26" t="s">
         <v>33</v>
       </c>
-      <c r="N26">
-        <v>-1.95</v>
+      <c r="N26" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R26">
-        <v>20.7141</v>
+        <v>35</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2416,29 +2416,29 @@
       <c r="M27" t="s">
         <v>33</v>
       </c>
-      <c r="N27">
-        <v>-1.73</v>
+      <c r="N27" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27">
-        <v>18.8086</v>
+        <v>35</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2481,29 +2481,29 @@
       <c r="M28" t="s">
         <v>33</v>
       </c>
-      <c r="N28">
-        <v>-1.59</v>
+      <c r="N28" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R28">
-        <v>18.5739</v>
+        <v>35</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2547,28 +2547,28 @@
         <v>33</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O29">
-        <v>-1.73</v>
+        <v>35</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R29">
-        <v>20.8074</v>
+        <v>35</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2612,28 +2612,28 @@
         <v>33</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O30">
-        <v>-1.51</v>
+        <v>35</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R30">
-        <v>18.8066</v>
+        <v>35</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2677,28 +2677,28 @@
         <v>33</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O31">
-        <v>-1.29</v>
+        <v>35</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R31">
-        <v>18.3085</v>
+        <v>35</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2742,19 +2742,19 @@
         <v>33</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P32">
-        <v>3.42</v>
+        <v>35</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R32">
-        <v>20.5987</v>
+        <v>35</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>35</v>
@@ -2763,7 +2763,7 @@
         <v>35</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2807,19 +2807,19 @@
         <v>33</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P33">
-        <v>3.12</v>
+        <v>35</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R33">
-        <v>18.9277</v>
+        <v>35</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>35</v>
@@ -2828,7 +2828,7 @@
         <v>35</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2872,19 +2872,19 @@
         <v>33</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P34">
-        <v>3.32</v>
+        <v>35</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R34">
-        <v>18.5233</v>
+        <v>35</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>35</v>
@@ -2893,7 +2893,7 @@
         <v>35</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2937,19 +2937,19 @@
         <v>33</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q35">
-        <v>3.91</v>
-      </c>
-      <c r="R35">
-        <v>20.7888</v>
+        <v>35</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>35</v>
@@ -2958,7 +2958,7 @@
         <v>35</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3002,19 +3002,19 @@
         <v>33</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q36">
-        <v>3.71</v>
-      </c>
-      <c r="R36">
-        <v>18.9145</v>
+        <v>35</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>35</v>
@@ -3023,7 +3023,7 @@
         <v>35</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3067,19 +3067,19 @@
         <v>33</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q37">
-        <v>3.91</v>
-      </c>
-      <c r="R37">
-        <v>18.3045</v>
+        <v>35</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>35</v>
@@ -3088,7 +3088,7 @@
         <v>35</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:21" s="1" customFormat="1">
@@ -3160,58 +3160,58 @@
       <c r="M39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N39" s="1">
-        <v>-2.32</v>
-      </c>
-      <c r="O39" s="1">
-        <v>-1.81</v>
-      </c>
-      <c r="P39" s="1">
-        <v>3.12</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>3.71</v>
-      </c>
-      <c r="R39" s="1">
-        <v>18.3045</v>
+      <c r="N39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:21" s="1" customFormat="1">
       <c r="M40" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N40" s="1">
-        <v>-1.59</v>
-      </c>
-      <c r="O40" s="1">
-        <v>-1.29</v>
-      </c>
-      <c r="P40" s="1">
-        <v>6.45</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>6.350000000000001</v>
-      </c>
-      <c r="R40" s="1">
-        <v>35.1314</v>
+      <c r="N40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:21" s="1" customFormat="1">
@@ -3238,87 +3238,87 @@
       <c r="M45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N45" s="1">
-        <v>-2.017777777777777</v>
-      </c>
-      <c r="O45" s="1">
-        <v>-1.667777777777778</v>
-      </c>
-      <c r="P45" s="1">
-        <v>4.09111111111111</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>4.54888888888889</v>
-      </c>
-      <c r="R45" s="1">
-        <v>23.97849722222222</v>
+      <c r="N45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:21" s="1" customFormat="1">
       <c r="M46" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N46" s="1">
-        <v>0.2327983284484556</v>
-      </c>
-      <c r="O46" s="1">
-        <v>0.1653130214524204</v>
-      </c>
-      <c r="P46" s="1">
-        <v>0.9831745006688447</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>0.7889436600704973</v>
-      </c>
-      <c r="R46" s="1">
-        <v>4.924726275838762</v>
+      <c r="N46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:21" s="1" customFormat="1">
       <c r="M47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N47" s="1">
-        <v>11.53736209270981</v>
-      </c>
-      <c r="O47" s="1">
-        <v>9.912173171697422</v>
-      </c>
-      <c r="P47" s="1">
-        <v>24.0319676969571</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>17.34365642558494</v>
-      </c>
-      <c r="R47" s="1">
-        <v>20.53809390220977</v>
+      <c r="N47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="1" customFormat="1"/>

--- a/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
+++ b/tx_loopback_flipflop_inbound_timing_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="103">
   <si>
     <t>Process</t>
   </si>
@@ -118,10 +118,10 @@
     <t>rcworst_ccworst_t</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>error</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>tsmc2ff (1)</t>
@@ -791,29 +791,29 @@
       <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>34</v>
+      <c r="N2">
+        <v>-1.11</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R2">
+        <v>25.7959</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -856,29 +856,29 @@
       <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
+      <c r="N3">
+        <v>-1.11</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R3">
+        <v>22.3066</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -921,29 +921,29 @@
       <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>34</v>
+      <c r="N4">
+        <v>-1.04</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R4">
+        <v>21.1077</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -987,28 +987,28 @@
         <v>33</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="O5">
+        <v>-0.67</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R5">
+        <v>25.9622</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1052,28 +1052,28 @@
         <v>33</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="O6">
+        <v>-0.75</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R6">
+        <v>22.3657</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1117,28 +1117,28 @@
         <v>33</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="O7">
+        <v>-0.8200000000000001</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R7">
+        <v>21.1385</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1182,19 +1182,19 @@
         <v>33</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="P8">
+        <v>3.24</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R8">
+        <v>25.7703</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>35</v>
@@ -1203,7 +1203,7 @@
         <v>35</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1247,19 +1247,19 @@
         <v>33</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="P9">
+        <v>2.75</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R9">
+        <v>22.3148</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>35</v>
@@ -1268,7 +1268,7 @@
         <v>35</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1312,19 +1312,19 @@
         <v>33</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="P10">
+        <v>2.75</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R10">
+        <v>21.1611</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>35</v>
@@ -1333,7 +1333,7 @@
         <v>35</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1377,19 +1377,19 @@
         <v>33</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="Q11">
+        <v>3.73</v>
+      </c>
+      <c r="R11">
+        <v>25.9087</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>35</v>
@@ -1398,7 +1398,7 @@
         <v>35</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1442,19 +1442,19 @@
         <v>33</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="Q12">
+        <v>3.34</v>
+      </c>
+      <c r="R12">
+        <v>22.4158</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>35</v>
@@ -1463,7 +1463,7 @@
         <v>35</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1507,19 +1507,19 @@
         <v>33</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="Q13">
+        <v>3.34</v>
+      </c>
+      <c r="R13">
+        <v>21.0104</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>35</v>
@@ -1528,7 +1528,7 @@
         <v>35</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1571,29 +1571,29 @@
       <c r="M14" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>34</v>
+      <c r="N14">
+        <v>-0.89</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R14">
+        <v>34.41240000000001</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1636,29 +1636,29 @@
       <c r="M15" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>34</v>
+      <c r="N15">
+        <v>-1.11</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R15">
+        <v>28.0961</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1701,29 +1701,29 @@
       <c r="M16" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>34</v>
+      <c r="N16">
+        <v>-1.19</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R16">
+        <v>25.4726</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1767,28 +1767,28 @@
         <v>33</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="O17">
+        <v>-0.31</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R17">
+        <v>35.058</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1832,28 +1832,28 @@
         <v>33</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="O18">
+        <v>-0.6</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R18">
+        <v>28.4196</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1897,28 +1897,28 @@
         <v>33</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="O19">
+        <v>-0.8200000000000001</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R19">
+        <v>25.4842</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1962,19 +1962,19 @@
         <v>33</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="P20">
+        <v>5.090000000000001</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R20">
+        <v>34.3102</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>35</v>
@@ -1983,7 +1983,7 @@
         <v>35</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2027,19 +2027,19 @@
         <v>33</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="P21">
+        <v>3.63</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R21">
+        <v>28.0529</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>35</v>
@@ -2048,7 +2048,7 @@
         <v>35</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2092,19 +2092,19 @@
         <v>33</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="P22">
+        <v>3.24</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R22">
+        <v>25.4829</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>35</v>
@@ -2113,7 +2113,7 @@
         <v>35</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2157,19 +2157,19 @@
         <v>33</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>35.1182</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>35</v>
@@ -2178,7 +2178,7 @@
         <v>35</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2222,19 +2222,19 @@
         <v>33</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="Q24">
+        <v>4.02</v>
+      </c>
+      <c r="R24">
+        <v>28.4975</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>35</v>
@@ -2243,7 +2243,7 @@
         <v>35</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2287,19 +2287,19 @@
         <v>33</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="Q25">
+        <v>3.82</v>
+      </c>
+      <c r="R25">
+        <v>25.3808</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>35</v>
@@ -2308,7 +2308,7 @@
         <v>35</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2351,29 +2351,29 @@
       <c r="M26" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>34</v>
+      <c r="N26">
+        <v>-1.11</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R26">
+        <v>20.7287</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2416,29 +2416,29 @@
       <c r="M27" t="s">
         <v>33</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>34</v>
+      <c r="N27">
+        <v>-1.04</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R27">
+        <v>18.9452</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2481,29 +2481,29 @@
       <c r="M28" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>34</v>
+      <c r="N28">
+        <v>-0.89</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R28">
+        <v>18.6013</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2547,28 +2547,28 @@
         <v>33</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="O29">
+        <v>-0.8200000000000001</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R29">
+        <v>20.7564</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2612,28 +2612,28 @@
         <v>33</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="O30">
+        <v>-0.75</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R30">
+        <v>18.8781</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2677,28 +2677,28 @@
         <v>33</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="O31">
+        <v>-0.6</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>34</v>
+        <v>34</v>
+      </c>
+      <c r="R31">
+        <v>18.3729</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2742,19 +2742,19 @@
         <v>33</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="P32">
+        <v>2.55</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R32">
+        <v>20.67</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>35</v>
@@ -2763,7 +2763,7 @@
         <v>35</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2807,19 +2807,19 @@
         <v>33</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="P33">
+        <v>2.46</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R33">
+        <v>18.8121</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>35</v>
@@ -2828,7 +2828,7 @@
         <v>35</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2872,19 +2872,19 @@
         <v>33</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="P34">
+        <v>2.65</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="R34">
+        <v>18.609</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>35</v>
@@ -2893,7 +2893,7 @@
         <v>35</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2937,19 +2937,19 @@
         <v>33</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="Q35">
+        <v>3.14</v>
+      </c>
+      <c r="R35">
+        <v>20.7214</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>35</v>
@@ -2958,7 +2958,7 @@
         <v>35</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3002,19 +3002,19 @@
         <v>33</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="Q36">
+        <v>3.04</v>
+      </c>
+      <c r="R36">
+        <v>18.8823</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>35</v>
@@ -3023,7 +3023,7 @@
         <v>35</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3067,19 +3067,19 @@
         <v>33</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="Q37">
+        <v>3.24</v>
+      </c>
+      <c r="R37">
+        <v>18.3599</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>35</v>
@@ -3088,7 +3088,7 @@
         <v>35</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:21" s="1" customFormat="1">
@@ -3160,58 +3160,58 @@
       <c r="M39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>35</v>
+      <c r="N39" s="1">
+        <v>-1.19</v>
+      </c>
+      <c r="O39" s="1">
+        <v>-0.8200000000000001</v>
+      </c>
+      <c r="P39" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>3.04</v>
+      </c>
+      <c r="R39" s="1">
+        <v>18.3599</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:21" s="1" customFormat="1">
       <c r="M40" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>35</v>
+      <c r="N40" s="1">
+        <v>-0.89</v>
+      </c>
+      <c r="O40" s="1">
+        <v>-0.31</v>
+      </c>
+      <c r="P40" s="1">
+        <v>5.090000000000001</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>5</v>
+      </c>
+      <c r="R40" s="1">
+        <v>35.1182</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:21" s="1" customFormat="1">
@@ -3238,87 +3238,87 @@
       <c r="M45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>35</v>
+      <c r="N45" s="1">
+        <v>-1.054444444444444</v>
+      </c>
+      <c r="O45" s="1">
+        <v>-0.6822222222222223</v>
+      </c>
+      <c r="P45" s="1">
+        <v>3.151111111111112</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="R45" s="1">
+        <v>23.98278888888889</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:21" s="1" customFormat="1">
       <c r="M46" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>35</v>
+      <c r="N46" s="1">
+        <v>0.09730948464805024</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.1557617680788894</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.7757640598424306</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0.5757700158145708</v>
+      </c>
+      <c r="R46" s="1">
+        <v>4.915871234118332</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:21" s="1" customFormat="1">
       <c r="M47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>35</v>
+      <c r="N47" s="1">
+        <v>9.228507500868833</v>
+      </c>
+      <c r="O47" s="1">
+        <v>22.83152952296425</v>
+      </c>
+      <c r="P47" s="1">
+        <v>24.61874660995019</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>15.86143294255016</v>
+      </c>
+      <c r="R47" s="1">
+        <v>20.49749617066359</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="1" customFormat="1"/>
